--- a/datasetKDB.xlsx
+++ b/datasetKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="39">
   <si>
     <t>source</t>
   </si>
@@ -135,13 +135,10 @@
     <t>Barbecue</t>
   </si>
   <si>
-    <t>cleanig Service</t>
-  </si>
-  <si>
     <t>new3</t>
   </si>
   <si>
-    <t>cleanig service</t>
+    <t>cleaning Service</t>
   </si>
 </sst>
 </file>
@@ -648,7 +645,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="42">
       <alignment wrapText="1"/>
@@ -672,6 +669,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
@@ -2284,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,25 +2382,25 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="171" t="s">
+      <c r="B2" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="224" t="s">
+      <c r="E2" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="328" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="382" t="s">
+      <c r="F2" s="288" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="344" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="400" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2351,25 +2408,25 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="172" t="s">
+      <c r="B3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="225" t="s">
+      <c r="E3" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="279" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="329" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="383" t="s">
+      <c r="F3" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="345" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="401" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2377,25 +2434,25 @@
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="173" t="s">
+      <c r="B4" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="226" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="330" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="384" t="s">
+      <c r="E4" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="290" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="346" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="402" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2403,25 +2460,25 @@
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="174" t="s">
+      <c r="B5" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="227" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="281" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="331" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="385" t="s">
+      <c r="E5" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="291" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="347" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="403" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2429,25 +2486,25 @@
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="175" t="s">
+      <c r="B6" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="228" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="282" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="332" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="386" t="s">
+      <c r="E6" s="236" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="292" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="348" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="404" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2455,25 +2512,25 @@
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="176" t="s">
+      <c r="B7" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="229" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="283" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="333" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="387" t="s">
+      <c r="E7" s="237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="293" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="349" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="405" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2481,25 +2538,25 @@
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="177" t="s">
+      <c r="B8" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="230" t="s">
+      <c r="E8" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="284" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="334" t="s">
+      <c r="F8" s="294" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="350" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="388" t="s">
+      <c r="H8" s="406" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2507,25 +2564,25 @@
       <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="178" t="s">
+      <c r="B9" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="231" t="s">
+      <c r="E9" s="239" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="285" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="335" t="s">
+      <c r="F9" s="295" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="351" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="389" t="s">
+      <c r="H9" s="407" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2533,25 +2590,25 @@
       <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="179" t="s">
+      <c r="B10" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="232" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="286" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="336" t="s">
+      <c r="E10" s="240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="296" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="352" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="390" t="s">
+      <c r="H10" s="408" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2559,25 +2616,25 @@
       <c r="A11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="180" t="s">
+      <c r="B11" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="233" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="287" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="337" t="s">
+      <c r="E11" s="241" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="297" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="353" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="391" t="s">
+      <c r="H11" s="409" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2585,25 +2642,25 @@
       <c r="A12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="181" t="s">
+      <c r="B12" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="234" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="288" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="338" t="s">
+      <c r="E12" s="242" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="298" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="354" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="392" t="s">
+      <c r="H12" s="410" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2611,25 +2668,25 @@
       <c r="A13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="182" t="s">
+      <c r="B13" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="235" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="289" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="339" t="s">
+      <c r="E13" s="243" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="299" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="393" t="s">
+      <c r="H13" s="411" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2637,25 +2694,25 @@
       <c r="A14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="183" t="s">
+      <c r="B14" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="236" t="s">
+      <c r="E14" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="290" t="s">
+      <c r="F14" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="340" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="394" t="s">
+      <c r="G14" s="356" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="412" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2663,25 +2720,25 @@
       <c r="A15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="184" t="s">
+      <c r="B15" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="237" t="s">
+      <c r="E15" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="291" t="s">
+      <c r="F15" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="341" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="395" t="s">
+      <c r="G15" s="357" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="413" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2689,25 +2746,25 @@
       <c r="A16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="185" t="s">
+      <c r="B16" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="238" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="292" t="s">
+      <c r="E16" s="246" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="342" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="396" t="s">
+      <c r="G16" s="358" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="414" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2715,25 +2772,25 @@
       <c r="A17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="186" t="s">
+      <c r="B17" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="239" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="293" t="s">
+      <c r="E17" s="247" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="343" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="397" t="s">
+      <c r="G17" s="359" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="415" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2741,25 +2798,25 @@
       <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="187" t="s">
+      <c r="B18" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="240" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="294" t="s">
+      <c r="E18" s="248" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="344" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="398" t="s">
+      <c r="G18" s="360" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="416" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2767,25 +2824,25 @@
       <c r="A19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="188" t="s">
+      <c r="B19" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="241" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="295" t="s">
+      <c r="E19" s="249" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="345" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="399" t="s">
+      <c r="G19" s="361" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="417" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2793,25 +2850,25 @@
       <c r="A20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="189" t="s">
+      <c r="B20" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="242" t="s">
+      <c r="E20" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="296" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="346" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="400" t="s">
+      <c r="F20" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="362" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="418" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2819,25 +2876,25 @@
       <c r="A21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="190" t="s">
+      <c r="B21" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="243" t="s">
+      <c r="E21" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="297" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="347" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="401" t="s">
+      <c r="F21" s="307" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="363" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="419" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2845,25 +2902,25 @@
       <c r="A22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="137" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="191" t="s">
+      <c r="B22" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="244" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="298" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="348" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="402" t="s">
+      <c r="E22" s="252" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="308" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="364" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="420" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2871,25 +2928,25 @@
       <c r="A23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="138" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="192" t="s">
+      <c r="B23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="245" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="299" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="349" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="403" t="s">
+      <c r="E23" s="253" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="309" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="365" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="421" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2897,25 +2954,25 @@
       <c r="A24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="139" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="193" t="s">
+      <c r="B24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="246" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="300" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="350" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="404" t="s">
+      <c r="E24" s="254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="310" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="366" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="422" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2923,25 +2980,25 @@
       <c r="A25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="194" t="s">
+      <c r="B25" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="247" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="301" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="351" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="405" t="s">
+      <c r="E25" s="255" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="311" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="367" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="423" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2949,25 +3006,25 @@
       <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="195" t="s">
+      <c r="B26" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="248" t="s">
+      <c r="E26" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="302" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="352" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="406" t="s">
+      <c r="F26" s="312" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="368" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="424" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2975,25 +3032,25 @@
       <c r="A27" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="196" t="s">
+      <c r="B27" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="249" t="s">
+      <c r="E27" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="303" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="353" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="407" t="s">
+      <c r="F27" s="313" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="369" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="425" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3001,25 +3058,25 @@
       <c r="A28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="197" t="s">
+      <c r="B28" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="250" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="304" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="354" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="408" t="s">
+      <c r="E28" s="258" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="314" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="370" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="426" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3027,25 +3084,25 @@
       <c r="A29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="144" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="198" t="s">
+      <c r="B29" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="251" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="305" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="355" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="409" t="s">
+      <c r="E29" s="259" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="315" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="371" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="427" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3053,25 +3110,25 @@
       <c r="A30" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="145" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="199" t="s">
+      <c r="B30" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="252" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="306" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="356" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="410" t="s">
+      <c r="E30" s="260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="316" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="372" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="428" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3079,25 +3136,25 @@
       <c r="A31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="200" t="s">
+      <c r="B31" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="253" t="s">
+      <c r="E31" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="307" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="357" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="411" t="s">
+      <c r="F31" s="317" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="373" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="429" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3105,25 +3162,25 @@
       <c r="A32" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="201" t="s">
+      <c r="B32" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="254" t="s">
+      <c r="E32" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="308" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="358" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="412" t="s">
+      <c r="F32" s="318" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="374" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="430" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3131,25 +3188,25 @@
       <c r="A33" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="202" t="s">
+      <c r="B33" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="255" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="309" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="359" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="413" t="s">
+      <c r="E33" s="263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="319" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="375" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="431" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3157,25 +3214,25 @@
       <c r="A34" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="149" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="203" t="s">
+      <c r="B34" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="153" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="256" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="310" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="360" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="414" t="s">
+      <c r="E34" s="264" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="320" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="376" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="432" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3183,25 +3240,25 @@
       <c r="A35" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="150" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="204" t="s">
+      <c r="B35" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="257" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="311" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="361" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="415" t="s">
+      <c r="E35" s="265" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="321" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="377" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="433" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3209,520 +3266,572 @@
       <c r="A36" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="151" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="205" t="s">
+      <c r="B36" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="211" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="322" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="378" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="434" t="s">
         <v>37</v>
-      </c>
-      <c r="E36" s="258" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="312" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="362" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="416" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="206" t="s">
+      <c r="B37" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="212" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="379" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="435" t="s">
         <v>37</v>
-      </c>
-      <c r="E37" s="259" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="313" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="363" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="417" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="207" t="s">
+      <c r="B38" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="260" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="314" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="364" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="418" t="s">
-        <v>38</v>
+      <c r="E38" s="268" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="380" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="436" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="154" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="208" t="s">
+      <c r="B39" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="158" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="261" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="315" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="365" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="419" t="s">
-        <v>38</v>
+      <c r="E39" s="269" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="325" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="381" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="437" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="209" t="s">
+      <c r="B40" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="262" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="316" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="366" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="420" t="s">
-        <v>38</v>
+      <c r="E40" s="270" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="326" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="382" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="438" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="156" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="210" t="s">
+      <c r="B41" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="160" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="263" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="317" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="367" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="421" t="s">
-        <v>38</v>
+      <c r="E41" s="271" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="383" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="439" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="211" t="s">
+      <c r="B42" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="161" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="264" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="318" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="368" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="422" t="s">
-        <v>38</v>
+      <c r="E42" s="272" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="328" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="384" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="440" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="212" t="s">
+      <c r="B43" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="265" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="319" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="369" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="423" t="s">
-        <v>38</v>
+      <c r="E43" s="273" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="329" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="385" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="441" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="159" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="213" t="s">
+      <c r="B44" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="163" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="266" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="320" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="370" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="424" t="s">
-        <v>38</v>
+      <c r="E44" s="274" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="330" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="386" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="442" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="160" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="214" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="267" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="321" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="371" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="425" t="s">
-        <v>38</v>
+      <c r="B45" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="220" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="275" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="331" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="387" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="443" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="215" t="s">
+      <c r="B46" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="268" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="322" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="372" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="426" t="s">
-        <v>38</v>
+      <c r="E46" s="276" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="332" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="388" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="444" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="216" t="s">
+      <c r="B47" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="166" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="269" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="323" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="373" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="427" t="s">
-        <v>38</v>
+      <c r="E47" s="277" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="333" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="389" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="445" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="163" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="217" t="s">
+      <c r="B48" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="223" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="270" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="324" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="374" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="428" t="s">
-        <v>38</v>
+      <c r="E48" s="278" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="390" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="446" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="164" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="218" t="s">
+      <c r="B49" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="168" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="271" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="375" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="429" t="s">
-        <v>38</v>
+      <c r="E49" s="279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="335" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="391" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="447" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="219" t="s">
+      <c r="B50" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="169" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="272" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="326" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="376" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="430" t="s">
-        <v>38</v>
+      <c r="E50" s="280" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="336" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="392" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="448" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="166" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="220" t="s">
+      <c r="B51" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="170" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="273" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="435" t="s">
+      <c r="E51" s="281" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="337" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="377" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="431" t="s">
-        <v>38</v>
+      <c r="G51" s="393" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="449" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="167" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="436" t="s">
+      <c r="B52" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="171" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="274" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="435" t="s">
+      <c r="E52" s="282" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="338" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="378" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="432" t="s">
-        <v>38</v>
+      <c r="G52" s="394" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="450" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="221" t="s">
+      <c r="B53" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="172" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="275" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="435" t="s">
+      <c r="E53" s="283" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="379" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="433" t="s">
-        <v>38</v>
+      <c r="G53" s="395" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="451" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="169" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="222" t="s">
+      <c r="B54" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="173" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="276" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="435" t="s">
+      <c r="E54" s="284" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="340" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="380" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="434" t="s">
-        <v>38</v>
+      <c r="G54" s="396" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="452" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="116" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="170" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="223" t="s">
+      <c r="B55" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="277" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="327" t="s">
+      <c r="E55" s="285" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="341" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="381" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="435" t="s">
-        <v>38</v>
+      <c r="G55" s="397" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="453" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="231" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="342" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="398" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="454" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="456" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="287" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="399" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="455" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/datasetKDB.xlsx
+++ b/datasetKDB.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jferreira\Documents\SADEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000"/>
+    <workbookView windowHeight="9000" windowWidth="21600" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="datasetKDB" sheetId="1" r:id="rId1"/>
+    <sheet name="datasetKDB" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">datasetKDB!$A$1:$H$35</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">datasetKDB!$A$1:$H$59</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="41">
   <si>
     <t>source</t>
   </si>
@@ -138,7 +138,13 @@
     <t>new3</t>
   </si>
   <si>
-    <t>cleaning Service</t>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Cold</t>
   </si>
 </sst>
 </file>
@@ -587,66 +593,2922 @@
     </border>
   </borders>
   <cellStyleXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="457">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1441">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="33" fontId="1" numFmtId="0" xfId="42">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="42">
       <alignment wrapText="1"/>
     </xf>
@@ -2012,53 +4874,149 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
+    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
+    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
+    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
+    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
+    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
+    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
+    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
+    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
+    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
+    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
+    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
+    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
+    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
+    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
+    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
+    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
+    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
+    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
+    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
+    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
+    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
+    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
+    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
+    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
+    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
+    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
+    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
+    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
+    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
+    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
+    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
+    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
+    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
+    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
+    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
+    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
+    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
+    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
+    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
     <cellStyle name="XLConnect.Boolean" xfId="45"/>
     <cellStyle name="XLConnect.DateTime" xfId="46"/>
     <cellStyle name="XLConnect.Header" xfId="42"/>
@@ -2066,7 +5024,7 @@
     <cellStyle name="XLConnect.String" xfId="43"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2083,10 +5041,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2121,7 +5079,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2156,7 +5114,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2250,21 +5208,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2281,7 +5239,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2333,1508 +5291,1612 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row ht="30" r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="953" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="954" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="955" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="956" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="957" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="958" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="959" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="960" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row ht="30" r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="961" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="1021" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="1081" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="1141" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="232" t="s">
+      <c r="E2" s="1201" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="288" t="s">
+      <c r="F2" s="1261" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="344" t="s">
+      <c r="G2" s="1321" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="400" t="s">
+      <c r="H2" s="1381" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row ht="30" r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="962" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="1022" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="1082" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="1142" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="233" t="s">
+      <c r="E3" s="1202" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="289" t="s">
+      <c r="F3" s="1262" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="345" t="s">
+      <c r="G3" s="1322" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="401" t="s">
+      <c r="H3" s="1382" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row ht="30" r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="963" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="1023" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="1083" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="1143" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="234" t="s">
+      <c r="E4" s="1203" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="290" t="s">
+      <c r="F4" s="1263" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="346" t="s">
+      <c r="G4" s="1323" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="402" t="s">
+      <c r="H4" s="1383" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row ht="30" r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="964" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="1024" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="1084" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="1144" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="235" t="s">
+      <c r="E5" s="1204" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="291" t="s">
+      <c r="F5" s="1264" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="347" t="s">
+      <c r="G5" s="1324" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="403" t="s">
+      <c r="H5" s="1384" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row ht="30" r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="965" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="1025" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="1085" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="1145" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="1205" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="292" t="s">
+      <c r="F6" s="1265" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="348" t="s">
+      <c r="G6" s="1325" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="404" t="s">
+      <c r="H6" s="1385" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row ht="30" r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="966" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="1026" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="1086" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="182" t="s">
+      <c r="D7" s="1146" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="237" t="s">
+      <c r="E7" s="1206" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="293" t="s">
+      <c r="F7" s="1266" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="349" t="s">
+      <c r="G7" s="1326" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="405" t="s">
+      <c r="H7" s="1386" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row ht="30" r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="967" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="1027" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="1087" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="183" t="s">
+      <c r="D8" s="1147" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="238" t="s">
+      <c r="E8" s="1207" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="294" t="s">
+      <c r="F8" s="1267" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="350" t="s">
+      <c r="G8" s="1327" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="406" t="s">
+      <c r="H8" s="1387" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row ht="30" r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="968" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="1028" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="1088" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="1148" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="239" t="s">
+      <c r="E9" s="1208" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="295" t="s">
+      <c r="F9" s="1268" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="351" t="s">
+      <c r="G9" s="1328" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="407" t="s">
+      <c r="H9" s="1388" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row ht="30" r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="969" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="1029" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="1089" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="185" t="s">
+      <c r="D10" s="1149" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="240" t="s">
+      <c r="E10" s="1209" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="296" t="s">
+      <c r="F10" s="1269" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="352" t="s">
+      <c r="G10" s="1329" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="408" t="s">
+      <c r="H10" s="1389" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row ht="30" r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="970" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="1030" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="1090" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="D11" s="1150" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="241" t="s">
+      <c r="E11" s="1210" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="297" t="s">
+      <c r="F11" s="1270" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="353" t="s">
+      <c r="G11" s="1330" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="409" t="s">
+      <c r="H11" s="1390" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row ht="30" r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="971" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="1031" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="1091" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="1151" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="242" t="s">
+      <c r="E12" s="1211" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="298" t="s">
+      <c r="F12" s="1271" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="354" t="s">
+      <c r="G12" s="1331" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="410" t="s">
+      <c r="H12" s="1391" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row ht="30" r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="972" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="1032" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="1092" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="188" t="s">
+      <c r="D13" s="1152" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="243" t="s">
+      <c r="E13" s="1212" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="299" t="s">
+      <c r="F13" s="1272" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="355" t="s">
+      <c r="G13" s="1332" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="411" t="s">
+      <c r="H13" s="1392" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row ht="30" r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="973" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="1033" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="1093" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="1153" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="244" t="s">
+      <c r="E14" s="1213" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="300" t="s">
+      <c r="F14" s="1273" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="356" t="s">
+      <c r="G14" s="1333" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="412" t="s">
+      <c r="H14" s="1393" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row ht="30" r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="974" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="1034" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="1094" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="190" t="s">
+      <c r="D15" s="1154" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="245" t="s">
+      <c r="E15" s="1214" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="301" t="s">
+      <c r="F15" s="1274" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="357" t="s">
+      <c r="G15" s="1334" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="413" t="s">
+      <c r="H15" s="1394" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row ht="30" r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="975" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="1035" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="1095" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="191" t="s">
+      <c r="D16" s="1155" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="246" t="s">
+      <c r="E16" s="1215" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="302" t="s">
+      <c r="F16" s="1275" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="358" t="s">
+      <c r="G16" s="1335" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="414" t="s">
+      <c r="H16" s="1395" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+    <row ht="30" r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="976" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="1036" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="1096" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="1156" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="247" t="s">
+      <c r="E17" s="1216" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="303" t="s">
+      <c r="F17" s="1276" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="359" t="s">
+      <c r="G17" s="1336" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="415" t="s">
+      <c r="H17" s="1396" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row ht="30" r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="977" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="1037" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="1097" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="193" t="s">
+      <c r="D18" s="1157" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="248" t="s">
+      <c r="E18" s="1217" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="304" t="s">
+      <c r="F18" s="1277" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="360" t="s">
+      <c r="G18" s="1337" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="416" t="s">
+      <c r="H18" s="1397" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row ht="30" r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="978" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="1038" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="138" t="s">
+      <c r="C19" s="1098" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="194" t="s">
+      <c r="D19" s="1158" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="249" t="s">
+      <c r="E19" s="1218" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="305" t="s">
+      <c r="F19" s="1278" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="361" t="s">
+      <c r="G19" s="1338" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="417" t="s">
+      <c r="H19" s="1398" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row ht="30" r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="979" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="1039" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="1099" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="195" t="s">
+      <c r="D20" s="1159" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="250" t="s">
+      <c r="E20" s="1219" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="306" t="s">
+      <c r="F20" s="1279" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="362" t="s">
+      <c r="G20" s="1339" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="418" t="s">
+      <c r="H20" s="1399" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    <row ht="30" r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="980" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="1040" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="1100" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="196" t="s">
+      <c r="D21" s="1160" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="251" t="s">
+      <c r="E21" s="1220" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="307" t="s">
+      <c r="F21" s="1280" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="363" t="s">
+      <c r="G21" s="1340" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="419" t="s">
+      <c r="H21" s="1400" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+    <row ht="30" r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="981" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="1041" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="1101" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D22" s="1161" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="252" t="s">
+      <c r="E22" s="1221" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="308" t="s">
+      <c r="F22" s="1281" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="364" t="s">
+      <c r="G22" s="1341" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="420" t="s">
+      <c r="H22" s="1401" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row ht="30" r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="982" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="1042" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="1102" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="198" t="s">
+      <c r="D23" s="1162" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="253" t="s">
+      <c r="E23" s="1222" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="309" t="s">
+      <c r="F23" s="1282" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="365" t="s">
+      <c r="G23" s="1342" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="421" t="s">
+      <c r="H23" s="1402" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+    <row ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="983" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="1043" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="1103" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="199" t="s">
+      <c r="D24" s="1163" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="254" t="s">
+      <c r="E24" s="1223" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="310" t="s">
+      <c r="F24" s="1283" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="366" t="s">
+      <c r="G24" s="1343" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="422" t="s">
+      <c r="H24" s="1403" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+    <row ht="30" r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="984" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="1044" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="1104" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="200" t="s">
+      <c r="D25" s="1164" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="255" t="s">
+      <c r="E25" s="1224" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="311" t="s">
+      <c r="F25" s="1284" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="367" t="s">
+      <c r="G25" s="1344" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="423" t="s">
+      <c r="H25" s="1404" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    <row ht="30" r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="985" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="1045" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="1105" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="201" t="s">
+      <c r="D26" s="1165" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="256" t="s">
+      <c r="E26" s="1225" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="312" t="s">
+      <c r="F26" s="1285" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="368" t="s">
+      <c r="G26" s="1345" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="424" t="s">
+      <c r="H26" s="1405" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+    <row ht="30" r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="986" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="1046" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="1106" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="202" t="s">
+      <c r="D27" s="1166" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="257" t="s">
+      <c r="E27" s="1226" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="313" t="s">
+      <c r="F27" s="1286" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="369" t="s">
+      <c r="G27" s="1346" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="425" t="s">
+      <c r="H27" s="1406" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row ht="30" r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="987" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="1047" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="1107" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="203" t="s">
+      <c r="D28" s="1167" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="258" t="s">
+      <c r="E28" s="1227" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="314" t="s">
+      <c r="F28" s="1287" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="370" t="s">
+      <c r="G28" s="1347" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="426" t="s">
+      <c r="H28" s="1407" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+    <row ht="30" r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="988" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="1048" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="1108" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="204" t="s">
+      <c r="D29" s="1168" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="259" t="s">
+      <c r="E29" s="1228" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="315" t="s">
+      <c r="F29" s="1288" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="371" t="s">
+      <c r="G29" s="1348" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="427" t="s">
+      <c r="H29" s="1408" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+    <row ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="989" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="1049" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="1109" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="205" t="s">
+      <c r="D30" s="1169" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="260" t="s">
+      <c r="E30" s="1229" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="316" t="s">
+      <c r="F30" s="1289" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="372" t="s">
+      <c r="G30" s="1349" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="428" t="s">
+      <c r="H30" s="1409" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+    <row ht="30" r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="990" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="1050" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="150" t="s">
+      <c r="C31" s="1110" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="206" t="s">
+      <c r="D31" s="1170" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="261" t="s">
+      <c r="E31" s="1230" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="317" t="s">
+      <c r="F31" s="1290" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="373" t="s">
+      <c r="G31" s="1350" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="429" t="s">
+      <c r="H31" s="1410" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+    <row ht="30" r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="991" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="1051" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="1111" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="207" t="s">
+      <c r="D32" s="1171" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="262" t="s">
+      <c r="E32" s="1231" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="318" t="s">
+      <c r="F32" s="1291" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="374" t="s">
+      <c r="G32" s="1351" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="430" t="s">
+      <c r="H32" s="1411" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+    <row ht="30" r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="992" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="1052" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="152" t="s">
+      <c r="C33" s="1112" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="208" t="s">
+      <c r="D33" s="1172" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="263" t="s">
+      <c r="E33" s="1232" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="319" t="s">
+      <c r="F33" s="1292" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="375" t="s">
+      <c r="G33" s="1352" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="431" t="s">
+      <c r="H33" s="1412" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+    <row ht="30" r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="993" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="1053" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="153" t="s">
+      <c r="C34" s="1113" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="209" t="s">
+      <c r="D34" s="1173" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="264" t="s">
+      <c r="E34" s="1233" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="320" t="s">
+      <c r="F34" s="1293" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="376" t="s">
+      <c r="G34" s="1353" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="432" t="s">
+      <c r="H34" s="1413" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+    <row ht="30" r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="994" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="1054" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="154" t="s">
+      <c r="C35" s="1114" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="210" t="s">
+      <c r="D35" s="1174" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="265" t="s">
+      <c r="E35" s="1234" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="321" t="s">
+      <c r="F35" s="1294" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="377" t="s">
+      <c r="G35" s="1354" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="433" t="s">
+      <c r="H35" s="1414" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+    <row ht="30" r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="995" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="1055" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="155" t="s">
+      <c r="C36" s="1115" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="211" t="s">
+      <c r="D36" s="1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="1235" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1295" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1355" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1415" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="996" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1056" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1176" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1236" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1296" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="1356" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1416" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="997" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1057" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1177" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1297" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1357" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1417" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="998" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1058" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1178" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1238" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1298" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="1358" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1418" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="999" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1059" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1239" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1299" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="1359" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1419" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1000" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1060" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1180" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1300" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1360" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="1420" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1001" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1061" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1181" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1241" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1301" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1361" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="1421" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1002" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1062" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="1122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1182" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1242" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1302" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1362" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1422" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1003" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1063" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1243" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1303" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1363" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="1423" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1004" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1064" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="1184" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1244" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1304" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1364" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="1424" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1005" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1065" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1185" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1245" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1305" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1365" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1425" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1006" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1066" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1126" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="1186" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1246" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1306" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1366" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="1426" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1007" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1067" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="1187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="1247" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1307" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1367" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1427" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1008" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1068" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="1128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1188" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1248" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1308" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1368" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1428" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1009" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1069" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1189" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1249" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1309" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1369" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1429" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1010" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1070" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="1130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1190" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1250" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1310" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="1370" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="1430" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1011" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1071" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="1131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1191" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="1251" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1311" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="1371" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="1431" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1012" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1072" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="1132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1192" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1252" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1312" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="1372" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1432" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1013" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1073" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="1133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1193" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="1253" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1313" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1373" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="1433" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1014" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1074" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="1134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1194" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="1254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1314" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="1374" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="1434" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1015" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1075" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="1135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="1195" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1255" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1315" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="1375" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="1435" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1016" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1076" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="1196" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1316" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="1376" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="1436" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1017" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1077" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="1137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="1197" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1257" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1317" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="1377" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="1437" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row ht="30" r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1018" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1078" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="1198" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1258" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1318" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1378" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="1438" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1019" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1079" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="1139" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="266" t="s">
+      <c r="D60" s="1199" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="1259" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="322" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="378" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="434" t="s">
+      <c r="F60" s="1319" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="1379" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1439" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="61">
+      <c r="A61" t="s" s="1020">
         <v>7</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B61" t="s" s="1080">
         <v>33</v>
       </c>
-      <c r="C37" s="156" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="212" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="267" t="s">
+      <c r="C61" t="s" s="1140">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s" s="1200">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s" s="1260">
         <v>12</v>
       </c>
-      <c r="F37" s="323" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="379" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="435" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="213" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="268" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="324" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="380" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="436" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="214" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="269" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="325" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="381" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="437" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="159" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="270" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="326" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="382" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="438" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="160" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="216" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="271" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="327" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="383" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="439" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="217" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="272" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="328" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="384" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="440" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="218" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="273" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="329" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="385" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="441" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="163" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="219" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="274" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="330" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="386" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="442" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="164" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="220" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="275" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="331" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="387" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="443" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="221" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="276" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="332" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="388" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="444" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="166" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="222" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="277" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="333" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="389" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="445" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="167" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="223" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="278" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="334" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="390" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="446" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="224" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="279" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="335" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="391" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="447" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="169" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="225" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="280" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="336" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="392" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="448" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="170" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="226" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="281" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="337" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="393" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="449" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="227" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="282" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="338" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="394" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="450" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="116" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="172" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="228" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="283" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="339" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="395" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="451" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="173" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="229" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="284" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="340" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="396" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="452" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="174" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="230" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="285" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="341" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="397" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="453" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="175" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="231" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="286" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="342" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="398" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="454" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="456" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="287" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="343" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="399" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="455" t="s">
+      <c r="F61" t="s" s="1320">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s" s="1380">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s" s="1440">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>